--- a/tasks/generators/data/data.xlsx
+++ b/tasks/generators/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212" count="212">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217" count="217">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -73,10 +73,280 @@
     <x:t>Secondary Province</x:t>
   </x:si>
   <x:si>
-    <x:t>%2074169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shafqat Monwar</x:t>
+    <x:t>%2086702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Husam-Eldin Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdel-Qadir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARABIC, ENGLISH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 323-7723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 323-6304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women&amp;apos;s College Hospital, Cardiology Clinic, 4th Floor, 76 Grenville Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toronto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M5S 1B2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Independent Practice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Internal Medicine, Cardiology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Downsview Cardiology, 6-906 Sheppard Avenue West</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 633-0045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 633-0048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M3H 2T5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2031367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoshiar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdollah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENGLISH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(613) 549-6666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(613) 548-1387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kingston General Hospital, 76 Stuart Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kingston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K7L 2V7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cardiology</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>%2097498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdulgani Ab M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abonowara</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 646-5557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 646-5559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suite 204, 282 Linwell Road</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Catharines</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L2N 6N5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2063897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beth Lynn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abramson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 864-5968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 864-5974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Michael&amp;apos;s Hospital, Division of Cardiology, 30 Bond Street, Rm 6-039 Queen Central</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M5B 1W8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2088435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joseph George</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abunassar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARABIC, ENGLISH, FRENCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(613) 548-1383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>613-548-2400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kingston General Hospital, 76 Stuart Street, CV Lab, Kingston, Ontario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2088588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abuzeid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Downsview Clinic, Unit 6, 906 Sheppard Ave West</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M5G 1V7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2062749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gerald Stephen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(613) 548-2400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kingston General Hospital, Kidd 3, Cardiovascular Laboratory, 76 Stuart Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2088766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeremy William</x:t>
+  </x:si>
+  <x:si>
+    <x:t>905-935-4763</x:t>
+  </x:si>
+  <x:si>
+    <x:t>905-646-3251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suite 205, 589 Lake Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L2N 7L6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2050052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Neil Lorne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adleman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 273-4055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 273-4969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suite 305, 101 Queensway West</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mississauga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L5B 2P7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pediatrics, Cardiology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2072604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kamran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 864-5152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 864-5348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Michael&amp;apos;s Hospital, Division of Cardiology, Donnelly Wing - Suite 6-050, 30 Bond Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2075192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mayraj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BENGALI, ENGLISH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 494-6221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 494-6717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brampton Civic Hospital, 2100 Bovaird Drive East, Cardiorespitory Department, Room N2916</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brampton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L6R 3J7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2083773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaheeda Moshfeqa</x:t>
   </x:si>
   <x:si>
     <x:t>Ahmed</x:t>
@@ -85,571 +355,316 @@
     <x:t>ENGLISH, FRENCH</x:t>
   </x:si>
   <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 848-2550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 848-5037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trillium Cardiovascular Associates, Suite 608, 89 Queensway West</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mississauga</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L5B 2V2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Independent Practice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cardiac Surgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>%2088665</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muhammad Rauf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahsan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, URDU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(416) 360-4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Michael&amp;apos;s Hospital, 30 Bond Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Toronto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M5B 1W8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2091030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Al-Atassi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARABIC, ENGLISH, FRENCH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 696-7293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 696-7118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of Ottawa Heart Institut, 40 Ruskin Street, Suite 3404-B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ottawa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K1Y 4W7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2076836</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fawaz Mohammed Nour Saeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Altaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARABIC, ENGLISH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 522-1155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Joseph&amp;apos;s Hospital, Division of Thoracic Surgery, 50 Charlton Avenue East</x:t>
+    <x:t>(416) 480-6043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 480-6715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Division of Cardiology, Sunnybrook Health Sciences Centre, 2075 Bayview Avenue Room E222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M4N 3M5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cardiology, Internal Medicine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MyHealth Center 1849 Yonge Street, #218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 928-3467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M4S 1Y2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2089907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vineeta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahooja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENGLISH, HINDI, URDU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 281-9499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 283-5705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suite 412, 1371 Neilson Road</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scarborough</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M1B 4Z8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Restricted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2nd Floor, 235 Salem Road</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 426-8333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 426-4447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L1Z 0B1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ajax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2082435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Craig Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ainsworth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 521-2100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 577-8034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamilton Health Sciences, Hamilton General Hospital, McMaster Wing, Room 517, 237 Barton Street East</x:t>
   </x:si>
   <x:si>
     <x:t>Hamilton</x:t>
   </x:si>
   <x:si>
-    <x:t>L8N 4A6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cardiac Surgery, Thoracic Surgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Uthman Saad A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aluthman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Postgraduate Medical Education, Schulich School of Medicine, University of Western Ontario, Room M106 Medical Science Building</x:t>
-  </x:si>
-  <x:si>
-    <x:t>London</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N6A 5C1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Postgraduate Education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2053888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kassem Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ashe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(519) 744-3311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(519) 749-6677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Mary&amp;apos;s Regional Cardiac Care Ctr, 911 Queens Boulevard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kitchener</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N2M 1B2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>General Surgery, Vascular Surgery, Cardiac Surgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2096755</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rony</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Atoui</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(705) 671-5353</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(705) 671-5352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865 Regent Street, suite 131, Department of Cardiac Surgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sudbury</x:t>
-  </x:si>
-  <x:si>
-    <x:t>P3E 3Y9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2080994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mitesh Vallabh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Badiwala</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, GUJARATI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(416) 340-4720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(416) 340-3751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UHN Toronto General Hospital, Division of Cardiovascular Sugery, 4N-472, 200 Elizabeth Street</x:t>
+    <x:t>L8L 2X2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Internal Medicine, Cardiology, Critical Care Medicine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shadi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akhtari</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENGLISH, PERSIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4163236400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76 Grenville Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>906 Sheppard Ave W, Unit 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4166330045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mian Muhammad Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENGLISH, PANJABI/PUNJABI, URDU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 964-7265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unit 8, 2575 Danforth Avenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M4C 1L5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2090478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ashraf Mamoun Rashid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Al Azzoni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 527-4322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HHSC Hamilton General Hospital, Division of Cardiology, DBCVSRI C3-119, 237 Barton Street East</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2074266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salem Khamis Salem Tuaib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Al Kaabi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Practice Address Not Available</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2084087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Darar Abdulghani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Al Khdair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+965-98950708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chest diseases hospital, Kuwait&amp;#xA0;965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kuwait</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2084307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sami Mohammed A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Al Nasser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 796-7333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200 Elizabeth street, Toronto General Hospital, Cardiology Department</x:t>
   </x:si>
   <x:si>
     <x:t>M5G 2C4</x:t>
   </x:si>
   <x:si>
-    <x:t>%2072892</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Ahmed T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ben Musa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5197443311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 306-7607</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Mary&amp;apos;s General Hospital, Cardio-Vascular Surgery Department, Critical Care Medicine, 911 Queen&amp;apos;s Boulevard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N2M1B3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110967</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gianluigi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bisleri</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, ITALIAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 548-3232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kingston General Hospital, 76 Stuart Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kingston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K7L 2V7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Restricted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2081466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bindu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bittira</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, FRENCH, KANNADA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Health Sciences North, 865 Regent Street South</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2076045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Munir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boodhwani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, FRENCH, HINDI, URDU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 696-7295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 696-7302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Univ of Ottawa Heart Institute, Division of Cardiac Surgery H3405, 40 Ruskin Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2069301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael Andrew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Borger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, GERMAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-212-305-4980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9175918894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Columbia University Medical Centre, Divison of Cardiac, Thoracic &amp;amp;, Vascular Surgery Milstein 7GN-435, 177 Fort Washington Avenue, New York&amp;#xA0;NY&amp;#xA0;&amp;#xA0;10032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>United States</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2062917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Garry Wayne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Borsato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(403) 777-3007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(403) 777-3008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radiology Consultants Associated, Suite 120, 6707 Elbow Drive Southwest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Calgary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T2V 0E3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>General Surgery, Cardiac Surgery, Diagnostic Radiology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2070608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christopher Anthony</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caldarone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(416) 813-6420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Division of Cardiovascular Surgery, The Hospital for Sick Children, 555 University Avenue Room 1525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M5G 1X8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Academic Practice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2082645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vincent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6137614253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 761-5107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of Ottawa Heart Institut, Room 3405A, 40 Ruskin Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2078322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 523-0448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 523-0279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamilton Health Sciences, General Hospital, Room 504, 237 Barton Street East</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L8L 2X2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2075592</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael Wayne Art</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(519) 663-3593</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(519) 663-3595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LHSC University Hospital, Room B6-106, P O Box 5339, 339 Windermere Road</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N6A 5A5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennifer Chia-Ying</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438-886-3901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Postgraduate Medical Education, University of Toronto, 500 University Avenue, Suite 602</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M5G 1V7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2065598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gideon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cohen-Nehemia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, HEBREW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(416) 480-6077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(416) 480-6072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunnybrook Health Sciences Centre, H 410, 2075 Bayview Avenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M4N 3M5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2077121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adel Mahmud Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dyub</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 527-0271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(905) 577-8228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamilton Health Sciences, General Hospital, McMaster Clinic Room 504, 237 Barton Street East</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2085322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>El Sayed Mohammed El Sayed Hendawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elmistekawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 978-5555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 761-4807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Division of Cardiac Surgery, University of Ottawa, 40 Ruskin Street, H3- 3313A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glineur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 761-4893</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(613) 761-4712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of Ottawa, Heart Institute, Suite 3402, 40 Ruskin Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>General Surgery, Cardiac Surgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110759</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juan Bernardino</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grau Alvaro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENGLISH, SPANISH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>613 696-7291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>613-696-7117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of Ottawa, Heart Institute, 40 rue Ruskin Street, Suite 3403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%2064709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lin-Rui</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHINESE, ENGLISH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(519) 663-3468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(519) 663-3477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Department of Surgery, LHSC University Hospital, B6-112, 339 Windermere Road</x:t>
+    <x:t>100 Pertosa drive, S#205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L6X 4W8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shalan Hamed A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaamri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 935 0312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>905 935 2949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>464 Welland Avenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L2M 5V4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2092035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ana Carolina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(416) 340-3482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UHN Toronto General Hospital, 585 University Avenue, Room 11 PMB 135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M5G 2N2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2060894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renato Sandro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alessandrini</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENGLISH, FRENCH, ITALIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 723-8551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 721-4961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oshawa Clinic, 117 King Street East</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oshawa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L1H 1B9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeridge Health Corporation, Oshawa Site, 1 Hospital Court</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(905) 576-8711</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L1G 2B9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2071835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Saeed Dammas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alghamdi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIT # 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130 - OUELLETTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%2079219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdulrahman Mohammed Falah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Al-Harbi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>237 Barton Street East, Hamilton General Hospital</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1115,113 +1130,113 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="R2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:19">
       <x:c r="A3" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:19">
       <x:c r="A4" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
         <x:v>30</x:v>
@@ -1230,169 +1245,169 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:19">
       <x:c r="A5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:19">
       <x:c r="A6" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:19">
       <x:c r="A7" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>28</x:v>
@@ -1404,60 +1419,60 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="A8" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
         <x:v>30</x:v>
@@ -1466,57 +1481,57 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="A9" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L9" s="0" t="s">
         <x:v>30</x:v>
@@ -1525,175 +1540,175 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="A10" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="A11" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L11" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:19">
       <x:c r="A12" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K12" s="0" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="L12" s="0" t="s">
         <x:v>30</x:v>
@@ -1702,81 +1717,81 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:19">
       <x:c r="A13" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="H13" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="I13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K13" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="L13" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:19">
@@ -1793,7 +1808,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>125</x:v>
@@ -1808,246 +1823,246 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L14" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="O14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="P14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="Q14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="R14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="S14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="A15" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K15" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="L15" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M15" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="N15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="A16" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K16" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="L16" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="R16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="A17" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="A18" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="L18" s="0" t="s">
         <x:v>30</x:v>
@@ -2056,175 +2071,175 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="A19" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L19" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="A20" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L20" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M20" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="N20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="A21" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="L21" s="0" t="s">
         <x:v>30</x:v>
@@ -2233,57 +2248,57 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="O21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="P21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="Q21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="R21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="S21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="A22" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L22" s="0" t="s">
         <x:v>30</x:v>
@@ -2292,258 +2307,258 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="A23" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K23" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="L23" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="A24" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="L24" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="O24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="P24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="R24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="S24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="A25" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q25" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="A26" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K26" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="L26" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M26" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="N26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
